--- a/Processed Data/web_scraped_data.xlsx
+++ b/Processed Data/web_scraped_data.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ambsc, ammmath, mbsc, mma, mmmath, mnbi, mnbi, mnph</t>
+          <t>ambsc, ammmath, mbsc, mma, mmmath, mnbi, mnbu, mnph</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
